--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>'monkneyTest'</t>
+    <t>monkneyTest</t>
   </si>
   <si>
     <t>0M</t>
   </si>
   <si>
-    <t>'1.0'</t>
-  </si>
-  <si>
-    <t>2016-12-05 10:29 AM</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2019-11-21 22:55 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>34秒</t>
+    <t>25秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -101,38 +101,10 @@
     <t>FPS峰值</t>
   </si>
   <si>
-    <t>Honor_msm8909_android_5.1.1</t>
-  </si>
-  <si>
-    <t>1914M</t>
-  </si>
-  <si>
-    <t>4核</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 720x1280
-</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>12M</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Huawei_H60-L02_android_4.4.2</t>
-  </si>
-  <si>
-    <t>3014M</t>
+    <t>Xiaomi_MI_android_8.0.0</t>
+  </si>
+  <si>
+    <t>5725M</t>
   </si>
   <si>
     <t>8核</t>
@@ -142,6 +114,21 @@
 </t>
   </si>
   <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>52M</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -194,28 +181,13 @@
   </si>
   <si>
     <t>检查不到元素</t>
-  </si>
-  <si>
-    <t>闪退测试2</t>
-  </si>
-  <si>
-    <t>23M</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>崩溃了</t>
-  </si>
-  <si>
-    <t>下载日志</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,15 +215,6 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,9 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,14 +294,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
+      <xdr:rowOff>1028700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_home_feed_20161205103007_CheckPoint_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_home_feed_20191121225621_CheckPoint_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -355,45 +315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7924800" y="571500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_home_feed_20161205103013_CheckPoint_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="1962150"/>
-          <a:ext cx="1028700" cy="1828800"/>
+          <a:ext cx="1828800" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -767,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -863,39 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1"/>
+    <row r="12" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
@@ -909,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -936,31 +826,31 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>27</v>
@@ -969,16 +859,16 @@
         <v>26</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="110" customHeight="1">
@@ -989,13 +879,13 @@
         <v>1001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -1014,64 +904,19 @@
         <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1"/>
+    <row r="4" spans="1:15" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>